--- a/SuiteBank.xlsx
+++ b/SuiteBank.xlsx
@@ -3,25 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DE6DC7A-9C6A-43AC-904C-433D348DCD77}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{721465DF-0BB7-44F1-952B-6CD38AA99117}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Suite" sheetId="5" r:id="rId2"/>
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="DataLnk" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="TestSummary" sheetId="4" r:id="rId6"/>
-    <sheet name="TestSummaryLinked" sheetId="7" r:id="rId7"/>
+    <sheet name="TestSummary" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="113">
   <si>
     <t>TestCases</t>
   </si>
@@ -216,30 +214,6 @@
   </si>
   <si>
     <t>Mozilla</t>
-  </si>
-  <si>
-    <t>boolean numberornot(String input){</t>
-  </si>
-  <si>
-    <t>try{</t>
-  </si>
-  <si>
-    <t>Integer.parseint(input)</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>catch(NumberFormatException e)</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>return false;</t>
-  </si>
-  <si>
-    <t>return true;</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -355,15 +329,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Fort mill</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -402,66 +367,32 @@
     <t>org.openqa.selenium.NoSuchElementException: Unable to locate element: //input[@name='name']</t>
   </si>
   <si>
-    <t>1) Login with correct user id and password.</t>
-  </si>
-  <si>
-    <t>Verify - verify result by title of the page.</t>
-  </si>
-  <si>
-    <t>Verify- verify with the error message of password.</t>
-  </si>
-  <si>
-    <t>5) a) login with correct user id and password.</t>
-  </si>
-  <si>
-    <t>    b) logout</t>
-  </si>
-  <si>
-    <t>    c) press back button on window</t>
-  </si>
-  <si>
-    <t>    d) it should not open the logged in page i.e. it should ask again for login.</t>
-  </si>
-  <si>
-    <t>Verify- verify with the title of the page.</t>
-  </si>
-  <si>
-    <t>2) Login with correct user id and wrong password
-(min 6 char should be there in password).</t>
-  </si>
-  <si>
-    <t>3)  If user id and password both are blank then Sign In button 
-should not be enabled</t>
-  </si>
-  <si>
-    <t>Verify- verify by checking the button enability, 
-it should not be enabled.</t>
-  </si>
-  <si>
-    <t>4) Login with only userid and not give password then Sign
- In button should not be enabled.</t>
-  </si>
-  <si>
-    <t>Page Obect Model -Project Linkedin</t>
-  </si>
-  <si>
     <t>veenumehta@gmail.com</t>
   </si>
   <si>
     <t>edw@1234</t>
   </si>
   <si>
-    <t>Aav9924200822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpectedTitle </t>
+    <t>A99dd</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>New Jersy</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,14 +422,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -640,17 +559,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -995,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1023,7 +931,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1031,7 +939,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1105,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1114,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1218,13 +1126,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>61</v>
@@ -1252,7 +1160,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>62</v>
@@ -1263,11 +1171,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>62</v>
@@ -1298,10 +1206,10 @@
         <v>59</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>62</v>
@@ -1315,16 +1223,16 @@
         <v>59</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1332,31 +1240,31 @@
         <v>1</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="J19" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>56</v>
@@ -1370,37 +1278,37 @@
         <v>4</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1624,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B788C6D4-AA0C-4FBD-8193-4541B3703FD7}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,10 +1543,9 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -1653,10 +1560,9 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1668,9 +1574,7 @@
       <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -1678,10 +1582,9 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="14"/>
@@ -1697,14 +1600,13 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>130</v>
+      <c r="B4" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="11" t="s">
@@ -1718,18 +1620,17 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="32" t="s">
-        <v>131</v>
+      <c r="C5" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1739,17 +1640,16 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>130</v>
+      <c r="B6" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>62</v>
@@ -1762,10 +1662,9 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="14"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1777,9 +1676,8 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1792,9 +1690,8 @@
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1807,9 +1704,8 @@
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1822,9 +1718,8 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1837,9 +1732,8 @@
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1852,9 +1746,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1867,9 +1760,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1882,9 +1774,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1897,9 +1788,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1912,9 +1802,8 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1927,9 +1816,8 @@
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1942,9 +1830,8 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1957,9 +1844,8 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1972,9 +1858,8 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1987,9 +1872,8 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2002,9 +1886,8 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2017,9 +1900,8 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2032,9 +1914,8 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -2047,9 +1928,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2062,9 +1942,8 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2077,7 +1956,6 @@
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2090,76 +1968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B107B50F-4318-4130-83DC-0A0E5D7A7DDF}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299E1098-1BBA-4184-B29C-D9413B7BDDCA}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,7 +1995,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -2194,7 +2007,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>49</v>
@@ -2213,22 +2026,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>50</v>
@@ -2245,19 +2058,19 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2275,7 +2088,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2286,23 +2099,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>86</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -2313,19 +2126,19 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2337,14 +2150,14 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2787,92 +2600,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8476B8AF-3082-47BC-8C7E-DED72D61734B}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-    </row>
-    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-    </row>
-    <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>